--- a/DTW/data/5person/skip5.xlsx
+++ b/DTW/data/5person/skip5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jji94\Documents\Github\INC_BEV_FastMOT\DTW\data\5person\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB068E3-22D7-441C-8DCB-CB1266C332B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094E198-490B-40F4-886E-7D3905997F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="0" windowWidth="14955" windowHeight="13755" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="7035" yWindow="375" windowWidth="2040" windowHeight="13395" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="33">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,98 @@
   </si>
   <si>
     <t>길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F481" sqref="F481"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D480" sqref="D480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +759,9 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -675,7 +769,9 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -683,7 +779,9 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -691,7 +789,9 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -699,7 +799,9 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
@@ -817,7 +919,9 @@
       <c r="C19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
@@ -825,7 +929,9 @@
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -833,7 +939,9 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
@@ -841,7 +949,9 @@
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -849,7 +959,9 @@
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -869,7 +981,9 @@
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
@@ -877,7 +991,9 @@
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
@@ -885,7 +1001,9 @@
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
@@ -893,7 +1011,9 @@
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -901,7 +1021,9 @@
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
@@ -1019,7 +1141,9 @@
       <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
@@ -1027,7 +1151,9 @@
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
@@ -1035,7 +1161,9 @@
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
@@ -1043,7 +1171,9 @@
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
@@ -1051,7 +1181,9 @@
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
@@ -1071,7 +1203,9 @@
       <c r="C49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
@@ -1079,7 +1213,9 @@
       <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
@@ -1087,7 +1223,9 @@
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
@@ -1095,7 +1233,9 @@
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
@@ -1103,7 +1243,9 @@
       <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
@@ -1221,7 +1363,9 @@
       <c r="C67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
@@ -1229,7 +1373,9 @@
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
@@ -1237,7 +1383,9 @@
       <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
@@ -1245,7 +1393,9 @@
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
@@ -1253,7 +1403,9 @@
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
@@ -1273,7 +1425,9 @@
       <c r="C73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
@@ -1281,7 +1435,9 @@
       <c r="C74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
@@ -1289,7 +1445,9 @@
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
@@ -1297,7 +1455,9 @@
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
@@ -1305,7 +1465,9 @@
       <c r="C77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7"/>
@@ -1423,7 +1585,9 @@
       <c r="C91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
@@ -1431,7 +1595,9 @@
       <c r="C92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
@@ -1439,7 +1605,9 @@
       <c r="C93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
@@ -1447,7 +1615,9 @@
       <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
@@ -1455,7 +1625,9 @@
       <c r="C95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
@@ -1463,7 +1635,9 @@
       <c r="C96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
@@ -1475,7 +1649,9 @@
       <c r="C97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D97" s="3"/>
+      <c r="D97" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
@@ -1483,7 +1659,9 @@
       <c r="C98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
@@ -1491,7 +1669,9 @@
       <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
@@ -1499,7 +1679,9 @@
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
@@ -1507,7 +1689,9 @@
       <c r="C101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7"/>
@@ -1625,7 +1809,9 @@
       <c r="C115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
@@ -1633,7 +1819,9 @@
       <c r="C116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="4"/>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
@@ -1641,7 +1829,9 @@
       <c r="C117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
@@ -1649,7 +1839,9 @@
       <c r="C118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="4"/>
+      <c r="D118" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
@@ -1657,7 +1849,9 @@
       <c r="C119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="4"/>
+      <c r="D119" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
@@ -1677,7 +1871,9 @@
       <c r="C121" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D121" s="3"/>
+      <c r="D121" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
@@ -1685,7 +1881,9 @@
       <c r="C122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D122" s="4"/>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
@@ -1693,7 +1891,9 @@
       <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="4"/>
+      <c r="D123" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
@@ -1701,7 +1901,9 @@
       <c r="C124" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="4"/>
+      <c r="D124" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
@@ -1709,7 +1911,9 @@
       <c r="C125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D125" s="4"/>
+      <c r="D125" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7"/>
@@ -1827,7 +2031,9 @@
       <c r="C139" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D139" s="4"/>
+      <c r="D139" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
@@ -1835,7 +2041,9 @@
       <c r="C140" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D140" s="4"/>
+      <c r="D140" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
@@ -1843,7 +2051,9 @@
       <c r="C141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="4"/>
+      <c r="D141" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
@@ -1851,7 +2061,9 @@
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="4"/>
+      <c r="D142" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
@@ -1859,7 +2071,9 @@
       <c r="C143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="4"/>
+      <c r="D143" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
@@ -1879,7 +2093,9 @@
       <c r="C145" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D145" s="3"/>
+      <c r="D145" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
@@ -1887,7 +2103,9 @@
       <c r="C146" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D146" s="4"/>
+      <c r="D146" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
@@ -1895,7 +2113,9 @@
       <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
@@ -1903,7 +2123,9 @@
       <c r="C148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="4"/>
+      <c r="D148" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
@@ -1911,7 +2133,9 @@
       <c r="C149" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="4"/>
+      <c r="D149" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7"/>
@@ -1919,7 +2143,9 @@
       <c r="C150" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="4"/>
+      <c r="D150" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
@@ -2029,7 +2255,9 @@
       <c r="C163" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D163" s="4"/>
+      <c r="D163" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
@@ -2037,7 +2265,9 @@
       <c r="C164" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D164" s="4"/>
+      <c r="D164" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
@@ -2045,7 +2275,9 @@
       <c r="C165" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="4"/>
+      <c r="D165" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
@@ -2053,7 +2285,9 @@
       <c r="C166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="4"/>
+      <c r="D166" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
@@ -2061,7 +2295,9 @@
       <c r="C167" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D167" s="4"/>
+      <c r="D167" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="168" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
@@ -2069,7 +2305,9 @@
       <c r="C168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="5"/>
+      <c r="D168" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
@@ -2081,7 +2319,9 @@
       <c r="C169" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D169" s="3"/>
+      <c r="D169" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
@@ -2089,7 +2329,9 @@
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="4"/>
+      <c r="D170" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
@@ -2097,7 +2339,9 @@
       <c r="C171" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="4"/>
+      <c r="D171" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
@@ -2105,7 +2349,9 @@
       <c r="C172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="4"/>
+      <c r="D172" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
@@ -2113,7 +2359,9 @@
       <c r="C173" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D173" s="4"/>
+      <c r="D173" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="174" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7"/>
@@ -2231,7 +2479,9 @@
       <c r="C187" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D187" s="4"/>
+      <c r="D187" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
@@ -2239,7 +2489,9 @@
       <c r="C188" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D188" s="4"/>
+      <c r="D188" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
@@ -2247,7 +2499,9 @@
       <c r="C189" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="4"/>
+      <c r="D189" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
@@ -2255,7 +2509,9 @@
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="4"/>
+      <c r="D190" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
@@ -2263,7 +2519,9 @@
       <c r="C191" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D191" s="4"/>
+      <c r="D191" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="8"/>
@@ -2283,7 +2541,9 @@
       <c r="C193" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D193" s="3"/>
+      <c r="D193" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
@@ -2291,7 +2551,9 @@
       <c r="C194" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D194" s="4"/>
+      <c r="D194" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
@@ -2299,7 +2561,9 @@
       <c r="C195" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D195" s="4"/>
+      <c r="D195" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
@@ -2307,7 +2571,9 @@
       <c r="C196" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D196" s="4"/>
+      <c r="D196" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
@@ -2315,7 +2581,9 @@
       <c r="C197" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D197" s="4"/>
+      <c r="D197" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="198" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7"/>
@@ -2433,7 +2701,9 @@
       <c r="C211" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D211" s="4"/>
+      <c r="D211" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
@@ -2441,7 +2711,9 @@
       <c r="C212" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D212" s="4"/>
+      <c r="D212" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
@@ -2449,7 +2721,9 @@
       <c r="C213" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D213" s="4"/>
+      <c r="D213" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
@@ -2457,7 +2731,9 @@
       <c r="C214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="4"/>
+      <c r="D214" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
@@ -2465,7 +2741,9 @@
       <c r="C215" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D215" s="4"/>
+      <c r="D215" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="216" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="8"/>
@@ -2485,7 +2763,9 @@
       <c r="C217" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D217" s="3"/>
+      <c r="D217" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
@@ -2493,7 +2773,9 @@
       <c r="C218" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D218" s="4"/>
+      <c r="D218" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
@@ -2501,7 +2783,9 @@
       <c r="C219" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="4"/>
+      <c r="D219" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
@@ -2509,7 +2793,9 @@
       <c r="C220" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D220" s="4"/>
+      <c r="D220" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
@@ -2517,7 +2803,9 @@
       <c r="C221" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D221" s="4"/>
+      <c r="D221" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="222" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="7"/>
@@ -2635,7 +2923,9 @@
       <c r="C235" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D235" s="4"/>
+      <c r="D235" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
@@ -2643,7 +2933,9 @@
       <c r="C236" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D236" s="4"/>
+      <c r="D236" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
@@ -2651,7 +2943,9 @@
       <c r="C237" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D237" s="4"/>
+      <c r="D237" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
@@ -2659,7 +2953,9 @@
       <c r="C238" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D238" s="4"/>
+      <c r="D238" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
@@ -2667,7 +2963,9 @@
       <c r="C239" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D239" s="4"/>
+      <c r="D239" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="240" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="8"/>
@@ -2687,7 +2985,9 @@
       <c r="C241" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D241" s="3"/>
+      <c r="D241" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
@@ -2695,7 +2995,9 @@
       <c r="C242" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D242" s="4"/>
+      <c r="D242" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
@@ -2703,7 +3005,9 @@
       <c r="C243" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="4"/>
+      <c r="D243" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
@@ -2711,7 +3015,9 @@
       <c r="C244" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D244" s="4"/>
+      <c r="D244" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
@@ -2719,7 +3025,9 @@
       <c r="C245" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D245" s="4"/>
+      <c r="D245" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="246" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7"/>
@@ -2837,7 +3145,9 @@
       <c r="C259" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D259" s="4"/>
+      <c r="D259" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
@@ -2845,7 +3155,9 @@
       <c r="C260" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D260" s="4"/>
+      <c r="D260" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
@@ -2853,7 +3165,9 @@
       <c r="C261" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="4"/>
+      <c r="D261" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
@@ -2861,7 +3175,9 @@
       <c r="C262" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D262" s="4"/>
+      <c r="D262" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
@@ -2869,7 +3185,9 @@
       <c r="C263" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="4"/>
+      <c r="D263" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="264" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="8"/>
@@ -2889,7 +3207,9 @@
       <c r="C265" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D265" s="3"/>
+      <c r="D265" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
@@ -2897,7 +3217,9 @@
       <c r="C266" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D266" s="4"/>
+      <c r="D266" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
@@ -2905,7 +3227,9 @@
       <c r="C267" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="4"/>
+      <c r="D267" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
@@ -2913,7 +3237,9 @@
       <c r="C268" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="4"/>
+      <c r="D268" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
@@ -2921,7 +3247,9 @@
       <c r="C269" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="4"/>
+      <c r="D269" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="270" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7"/>
@@ -3039,7 +3367,9 @@
       <c r="C283" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D283" s="4"/>
+      <c r="D283" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
@@ -3047,7 +3377,9 @@
       <c r="C284" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D284" s="4"/>
+      <c r="D284" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="7"/>
@@ -3055,7 +3387,9 @@
       <c r="C285" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D285" s="4"/>
+      <c r="D285" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
@@ -3063,7 +3397,9 @@
       <c r="C286" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D286" s="4"/>
+      <c r="D286" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="7"/>
@@ -3071,7 +3407,9 @@
       <c r="C287" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D287" s="4"/>
+      <c r="D287" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="288" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="8"/>
@@ -3091,7 +3429,9 @@
       <c r="C289" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D289" s="3"/>
+      <c r="D289" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
@@ -3099,7 +3439,9 @@
       <c r="C290" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D290" s="4"/>
+      <c r="D290" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="7"/>
@@ -3107,7 +3449,9 @@
       <c r="C291" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D291" s="4"/>
+      <c r="D291" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
@@ -3115,7 +3459,9 @@
       <c r="C292" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D292" s="4"/>
+      <c r="D292" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
@@ -3123,7 +3469,9 @@
       <c r="C293" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D293" s="4"/>
+      <c r="D293" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="294" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="7"/>
@@ -3241,7 +3589,9 @@
       <c r="C307" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D307" s="4"/>
+      <c r="D307" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
@@ -3249,7 +3599,9 @@
       <c r="C308" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D308" s="4"/>
+      <c r="D308" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="7"/>
@@ -3257,7 +3609,9 @@
       <c r="C309" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D309" s="4"/>
+      <c r="D309" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
@@ -3265,7 +3619,9 @@
       <c r="C310" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D310" s="4"/>
+      <c r="D310" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="7"/>
@@ -3273,7 +3629,9 @@
       <c r="C311" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D311" s="4"/>
+      <c r="D311" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="312" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="8"/>
@@ -3293,7 +3651,9 @@
       <c r="C313" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D313" s="3"/>
+      <c r="D313" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
@@ -3301,7 +3661,9 @@
       <c r="C314" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D314" s="4"/>
+      <c r="D314" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
@@ -3309,7 +3671,9 @@
       <c r="C315" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D315" s="4"/>
+      <c r="D315" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
@@ -3317,7 +3681,9 @@
       <c r="C316" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D316" s="4"/>
+      <c r="D316" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
@@ -3325,7 +3691,9 @@
       <c r="C317" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D317" s="4"/>
+      <c r="D317" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="318" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="7"/>
@@ -3443,7 +3811,9 @@
       <c r="C331" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D331" s="4"/>
+      <c r="D331" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
@@ -3451,7 +3821,9 @@
       <c r="C332" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D332" s="4"/>
+      <c r="D332" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
@@ -3459,7 +3831,9 @@
       <c r="C333" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D333" s="4"/>
+      <c r="D333" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
@@ -3467,7 +3841,9 @@
       <c r="C334" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D334" s="4"/>
+      <c r="D334" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="7"/>
@@ -3475,7 +3851,9 @@
       <c r="C335" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D335" s="4"/>
+      <c r="D335" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="8"/>
@@ -3495,7 +3873,9 @@
       <c r="C337" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D337" s="3"/>
+      <c r="D337" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="7"/>
@@ -3503,7 +3883,9 @@
       <c r="C338" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D338" s="4"/>
+      <c r="D338" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="7"/>
@@ -3511,7 +3893,9 @@
       <c r="C339" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D339" s="4"/>
+      <c r="D339" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="7"/>
@@ -3519,7 +3903,9 @@
       <c r="C340" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D340" s="4"/>
+      <c r="D340" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="7"/>
@@ -3527,7 +3913,9 @@
       <c r="C341" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D341" s="4"/>
+      <c r="D341" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="342" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="7"/>
@@ -3645,7 +4033,9 @@
       <c r="C355" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D355" s="4"/>
+      <c r="D355" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="7"/>
@@ -3653,7 +4043,9 @@
       <c r="C356" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D356" s="4"/>
+      <c r="D356" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="7"/>
@@ -3661,7 +4053,9 @@
       <c r="C357" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D357" s="4"/>
+      <c r="D357" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="7"/>
@@ -3669,7 +4063,9 @@
       <c r="C358" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D358" s="4"/>
+      <c r="D358" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
@@ -3677,7 +4073,9 @@
       <c r="C359" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D359" s="4"/>
+      <c r="D359" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="360" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="8"/>
@@ -3697,7 +4095,9 @@
       <c r="C361" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D361" s="3"/>
+      <c r="D361" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="7"/>
@@ -3705,7 +4105,9 @@
       <c r="C362" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D362" s="4"/>
+      <c r="D362" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="7"/>
@@ -3713,7 +4115,9 @@
       <c r="C363" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D363" s="4"/>
+      <c r="D363" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="7"/>
@@ -3721,7 +4125,9 @@
       <c r="C364" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D364" s="4"/>
+      <c r="D364" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="7"/>
@@ -3729,7 +4135,9 @@
       <c r="C365" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D365" s="4"/>
+      <c r="D365" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="366" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="7"/>
@@ -3847,7 +4255,9 @@
       <c r="C379" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D379" s="4"/>
+      <c r="D379" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="7"/>
@@ -3855,7 +4265,9 @@
       <c r="C380" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D380" s="4"/>
+      <c r="D380" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="7"/>
@@ -3863,7 +4275,9 @@
       <c r="C381" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D381" s="4"/>
+      <c r="D381" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="7"/>
@@ -3871,7 +4285,9 @@
       <c r="C382" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D382" s="4"/>
+      <c r="D382" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="7"/>
@@ -3879,7 +4295,9 @@
       <c r="C383" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D383" s="4"/>
+      <c r="D383" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="384" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="8"/>
@@ -3899,7 +4317,9 @@
       <c r="C385" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D385" s="3"/>
+      <c r="D385" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="7"/>
@@ -3907,7 +4327,9 @@
       <c r="C386" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D386" s="4"/>
+      <c r="D386" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="7"/>
@@ -3915,7 +4337,9 @@
       <c r="C387" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D387" s="4"/>
+      <c r="D387" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="7"/>
@@ -3923,7 +4347,9 @@
       <c r="C388" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D388" s="4"/>
+      <c r="D388" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="7"/>
@@ -3931,7 +4357,9 @@
       <c r="C389" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D389" s="4"/>
+      <c r="D389" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="390" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="7"/>
@@ -4049,7 +4477,9 @@
       <c r="C403" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D403" s="4"/>
+      <c r="D403" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="7"/>
@@ -4057,7 +4487,9 @@
       <c r="C404" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D404" s="4"/>
+      <c r="D404" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="7"/>
@@ -4065,7 +4497,9 @@
       <c r="C405" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D405" s="4"/>
+      <c r="D405" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="7"/>
@@ -4073,7 +4507,9 @@
       <c r="C406" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D406" s="4"/>
+      <c r="D406" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="7"/>
@@ -4081,7 +4517,9 @@
       <c r="C407" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D407" s="4"/>
+      <c r="D407" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="408" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="8"/>
@@ -4101,7 +4539,9 @@
       <c r="C409" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D409" s="3"/>
+      <c r="D409" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="7"/>
@@ -4109,7 +4549,9 @@
       <c r="C410" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D410" s="4"/>
+      <c r="D410" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="7"/>
@@ -4117,7 +4559,9 @@
       <c r="C411" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D411" s="4"/>
+      <c r="D411" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="7"/>
@@ -4125,7 +4569,9 @@
       <c r="C412" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D412" s="4"/>
+      <c r="D412" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="7"/>
@@ -4133,7 +4579,9 @@
       <c r="C413" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D413" s="4"/>
+      <c r="D413" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="414" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="7"/>
@@ -4251,7 +4699,9 @@
       <c r="C427" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D427" s="4"/>
+      <c r="D427" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="7"/>
@@ -4259,7 +4709,9 @@
       <c r="C428" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D428" s="4"/>
+      <c r="D428" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="7"/>
@@ -4267,7 +4719,9 @@
       <c r="C429" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D429" s="4"/>
+      <c r="D429" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="7"/>
@@ -4275,7 +4729,9 @@
       <c r="C430" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D430" s="4"/>
+      <c r="D430" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="7"/>
@@ -4283,7 +4739,9 @@
       <c r="C431" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D431" s="4"/>
+      <c r="D431" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="432" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="8"/>
@@ -4303,7 +4761,9 @@
       <c r="C433" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D433" s="3"/>
+      <c r="D433" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="7"/>
@@ -4311,7 +4771,9 @@
       <c r="C434" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D434" s="4"/>
+      <c r="D434" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="7"/>
@@ -4319,7 +4781,9 @@
       <c r="C435" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D435" s="4"/>
+      <c r="D435" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="7"/>
@@ -4327,7 +4791,9 @@
       <c r="C436" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D436" s="4"/>
+      <c r="D436" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="7"/>
@@ -4335,7 +4801,9 @@
       <c r="C437" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D437" s="4"/>
+      <c r="D437" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="438" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="7"/>
@@ -4453,7 +4921,9 @@
       <c r="C451" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D451" s="4"/>
+      <c r="D451" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="7"/>
@@ -4461,7 +4931,9 @@
       <c r="C452" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D452" s="4"/>
+      <c r="D452" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="7"/>
@@ -4469,7 +4941,9 @@
       <c r="C453" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D453" s="4"/>
+      <c r="D453" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="7"/>
@@ -4477,7 +4951,9 @@
       <c r="C454" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D454" s="4"/>
+      <c r="D454" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="7"/>
@@ -4485,7 +4961,9 @@
       <c r="C455" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D455" s="4"/>
+      <c r="D455" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="456" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="8"/>
@@ -4505,7 +4983,9 @@
       <c r="C457" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D457" s="3"/>
+      <c r="D457" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="7"/>
@@ -4513,7 +4993,9 @@
       <c r="C458" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D458" s="4"/>
+      <c r="D458" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="7"/>
@@ -4521,7 +5003,9 @@
       <c r="C459" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D459" s="4"/>
+      <c r="D459" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="7"/>
@@ -4529,7 +5013,9 @@
       <c r="C460" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D460" s="4"/>
+      <c r="D460" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="7"/>
@@ -4537,7 +5023,9 @@
       <c r="C461" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D461" s="4"/>
+      <c r="D461" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="462" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="7"/>
@@ -4655,7 +5143,9 @@
       <c r="C475" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D475" s="4"/>
+      <c r="D475" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="7"/>
@@ -4663,7 +5153,9 @@
       <c r="C476" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D476" s="4"/>
+      <c r="D476" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="7"/>
@@ -4671,7 +5163,9 @@
       <c r="C477" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D477" s="4"/>
+      <c r="D477" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="7"/>
@@ -4679,7 +5173,9 @@
       <c r="C478" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D478" s="4"/>
+      <c r="D478" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="7"/>
@@ -4687,7 +5183,9 @@
       <c r="C479" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D479" s="4"/>
+      <c r="D479" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="480" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="8"/>
@@ -4695,110 +5193,112 @@
       <c r="C480" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D480" s="5"/>
+      <c r="D480" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A457:A480"/>
+    <mergeCell ref="B457:B462"/>
+    <mergeCell ref="B463:B468"/>
+    <mergeCell ref="B469:B474"/>
+    <mergeCell ref="B475:B480"/>
+    <mergeCell ref="A433:A456"/>
+    <mergeCell ref="B433:B438"/>
+    <mergeCell ref="B439:B444"/>
+    <mergeCell ref="B445:B450"/>
+    <mergeCell ref="B451:B456"/>
+    <mergeCell ref="A409:A432"/>
+    <mergeCell ref="B409:B414"/>
+    <mergeCell ref="B415:B420"/>
+    <mergeCell ref="B421:B426"/>
+    <mergeCell ref="B427:B432"/>
+    <mergeCell ref="A385:A408"/>
+    <mergeCell ref="B385:B390"/>
+    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="B397:B402"/>
+    <mergeCell ref="B403:B408"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A1:A24"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="A25:A48"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="A73:A96"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="A49:A72"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A97:A120"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A121:A144"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="B139:B144"/>
+    <mergeCell ref="A169:A192"/>
+    <mergeCell ref="B169:B174"/>
+    <mergeCell ref="B175:B180"/>
+    <mergeCell ref="B181:B186"/>
+    <mergeCell ref="B187:B192"/>
+    <mergeCell ref="A145:A168"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="B163:B168"/>
+    <mergeCell ref="A193:A216"/>
+    <mergeCell ref="B193:B198"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="B211:B216"/>
+    <mergeCell ref="A217:A240"/>
+    <mergeCell ref="B217:B222"/>
+    <mergeCell ref="B223:B228"/>
+    <mergeCell ref="B229:B234"/>
+    <mergeCell ref="B235:B240"/>
+    <mergeCell ref="A265:A288"/>
+    <mergeCell ref="B265:B270"/>
+    <mergeCell ref="B271:B276"/>
+    <mergeCell ref="B277:B282"/>
+    <mergeCell ref="B283:B288"/>
+    <mergeCell ref="A241:A264"/>
+    <mergeCell ref="B241:B246"/>
+    <mergeCell ref="B247:B252"/>
+    <mergeCell ref="B253:B258"/>
+    <mergeCell ref="B259:B264"/>
+    <mergeCell ref="A289:A312"/>
+    <mergeCell ref="B289:B294"/>
+    <mergeCell ref="B295:B300"/>
+    <mergeCell ref="B301:B306"/>
+    <mergeCell ref="B307:B312"/>
+    <mergeCell ref="A313:A336"/>
+    <mergeCell ref="B313:B318"/>
+    <mergeCell ref="B319:B324"/>
+    <mergeCell ref="B325:B330"/>
+    <mergeCell ref="B331:B336"/>
+    <mergeCell ref="A361:A384"/>
+    <mergeCell ref="B361:B366"/>
+    <mergeCell ref="B367:B372"/>
+    <mergeCell ref="B373:B378"/>
+    <mergeCell ref="B379:B384"/>
     <mergeCell ref="A337:A360"/>
     <mergeCell ref="B337:B342"/>
     <mergeCell ref="B343:B348"/>
     <mergeCell ref="B349:B354"/>
     <mergeCell ref="B355:B360"/>
-    <mergeCell ref="A361:A384"/>
-    <mergeCell ref="B361:B366"/>
-    <mergeCell ref="B367:B372"/>
-    <mergeCell ref="B373:B378"/>
-    <mergeCell ref="B379:B384"/>
-    <mergeCell ref="A313:A336"/>
-    <mergeCell ref="B313:B318"/>
-    <mergeCell ref="B319:B324"/>
-    <mergeCell ref="B325:B330"/>
-    <mergeCell ref="B331:B336"/>
-    <mergeCell ref="A289:A312"/>
-    <mergeCell ref="B289:B294"/>
-    <mergeCell ref="B295:B300"/>
-    <mergeCell ref="B301:B306"/>
-    <mergeCell ref="B307:B312"/>
-    <mergeCell ref="A241:A264"/>
-    <mergeCell ref="B241:B246"/>
-    <mergeCell ref="B247:B252"/>
-    <mergeCell ref="B253:B258"/>
-    <mergeCell ref="B259:B264"/>
-    <mergeCell ref="A265:A288"/>
-    <mergeCell ref="B265:B270"/>
-    <mergeCell ref="B271:B276"/>
-    <mergeCell ref="B277:B282"/>
-    <mergeCell ref="B283:B288"/>
-    <mergeCell ref="A217:A240"/>
-    <mergeCell ref="B217:B222"/>
-    <mergeCell ref="B223:B228"/>
-    <mergeCell ref="B229:B234"/>
-    <mergeCell ref="B235:B240"/>
-    <mergeCell ref="A193:A216"/>
-    <mergeCell ref="B193:B198"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="B211:B216"/>
-    <mergeCell ref="A145:A168"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="B157:B162"/>
-    <mergeCell ref="B163:B168"/>
-    <mergeCell ref="A169:A192"/>
-    <mergeCell ref="B169:B174"/>
-    <mergeCell ref="B175:B180"/>
-    <mergeCell ref="B181:B186"/>
-    <mergeCell ref="B187:B192"/>
-    <mergeCell ref="A121:A144"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="B139:B144"/>
-    <mergeCell ref="A97:A120"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A49:A72"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A73:A96"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="A25:A48"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="A1:A24"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="A385:A408"/>
-    <mergeCell ref="B385:B390"/>
-    <mergeCell ref="B391:B396"/>
-    <mergeCell ref="B397:B402"/>
-    <mergeCell ref="B403:B408"/>
-    <mergeCell ref="A409:A432"/>
-    <mergeCell ref="B409:B414"/>
-    <mergeCell ref="B415:B420"/>
-    <mergeCell ref="B421:B426"/>
-    <mergeCell ref="B427:B432"/>
-    <mergeCell ref="A433:A456"/>
-    <mergeCell ref="B433:B438"/>
-    <mergeCell ref="B439:B444"/>
-    <mergeCell ref="B445:B450"/>
-    <mergeCell ref="B451:B456"/>
-    <mergeCell ref="A457:A480"/>
-    <mergeCell ref="B457:B462"/>
-    <mergeCell ref="B463:B468"/>
-    <mergeCell ref="B469:B474"/>
-    <mergeCell ref="B475:B480"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
